--- a/Checklist_en.xlsx
+++ b/Checklist_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\ControlTask6_MQA_Emin_Taghiyev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8179AE-EF26-4BDA-A990-FA135A148D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4684D4-2EF6-4E8D-9CB1-75521349CF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cheklist" sheetId="1" r:id="rId1"/>
@@ -258,10 +258,6 @@
     <t>Авторизоваться на сайте youtube с помощью корректных данных</t>
   </si>
   <si>
-    <t>Enviroment (окружение - браузеры)
-русский язык</t>
-  </si>
-  <si>
     <t>Пользователь залогинился в аккаунт youtube, и не работает в ней более 10 минут (не идут HTTP-запросы), он будет автоматически вылогинен.</t>
   </si>
   <si>
@@ -398,6 +394,10 @@
   </si>
   <si>
     <t>Функция быстрых покупок</t>
+  </si>
+  <si>
+    <t>Enviroment (окружение - браузеры)
+английский язык</t>
   </si>
 </sst>
 </file>
@@ -841,47 +841,11 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -901,9 +865,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -918,9 +879,6 @@
     </xf>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -937,6 +895,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -945,6 +918,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,7 +1167,7 @@
   <dimension ref="A1:X994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1180,17 +1180,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>72</v>
+      <c r="C1" s="50" t="s">
+        <v>118</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
       <c r="F1" s="1"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -1212,15 +1212,15 @@
       <c r="X1" s="2"/>
     </row>
     <row r="2" spans="1:24" ht="45">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1246,13 +1246,13 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1274,13 +1274,13 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="18">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1310,19 +1310,19 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="18">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>74</v>
+      <c r="B5" s="22" t="s">
+        <v>73</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="4"/>
@@ -1346,13 +1346,13 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A6" s="48" t="s">
-        <v>75</v>
+      <c r="A6" s="46" t="s">
+        <v>74</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="5"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1374,11 +1374,11 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="12.75">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>76</v>
+      <c r="B7" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1404,19 +1404,19 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="12.75">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="39" t="s">
-        <v>77</v>
+      <c r="B8" s="25" t="s">
+        <v>76</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="5"/>
@@ -1440,19 +1440,19 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="12.75">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>78</v>
+      <c r="B9" s="33" t="s">
+        <v>77</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="5"/>
@@ -1476,13 +1476,13 @@
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A10" s="48" t="s">
-        <v>81</v>
+      <c r="A10" s="46" t="s">
+        <v>80</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1504,11 +1504,11 @@
       <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" ht="12.75">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>82</v>
+      <c r="B11" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>8</v>
@@ -1540,11 +1540,11 @@
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" ht="12.75">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="41" t="s">
-        <v>83</v>
+      <c r="B12" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -1576,11 +1576,11 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="12.75">
-      <c r="A13" s="38" t="s">
-        <v>79</v>
+      <c r="A13" s="24" t="s">
+        <v>78</v>
       </c>
-      <c r="B13" s="41" t="s">
-        <v>84</v>
+      <c r="B13" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
@@ -1612,11 +1612,11 @@
       <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24" ht="12.75">
-      <c r="A14" s="38" t="s">
-        <v>80</v>
+      <c r="A14" s="24" t="s">
+        <v>79</v>
       </c>
-      <c r="B14" s="41" t="s">
-        <v>85</v>
+      <c r="B14" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
@@ -1648,11 +1648,11 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="12.75">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>86</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>87</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -1684,11 +1684,11 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="12.75">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>106</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>107</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
@@ -1720,13 +1720,13 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>88</v>
+      <c r="A17" s="41" t="s">
+        <v>87</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="5"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1748,11 +1748,11 @@
       <c r="X17" s="2"/>
     </row>
     <row r="18" spans="1:24" ht="12.75">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
@@ -1784,11 +1784,11 @@
       <c r="X18" s="2"/>
     </row>
     <row r="19" spans="1:24" ht="12.75">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="43" t="s">
-        <v>92</v>
+      <c r="B19" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
@@ -1820,19 +1820,19 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" ht="12.75">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>94</v>
+      <c r="B20" s="28" t="s">
+        <v>93</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="5"/>
@@ -1856,19 +1856,19 @@
       <c r="X20" s="2"/>
     </row>
     <row r="21" spans="1:24" ht="12.75">
-      <c r="A21" s="38" t="s">
-        <v>89</v>
+      <c r="A21" s="24" t="s">
+        <v>88</v>
       </c>
-      <c r="B21" s="44" t="s">
-        <v>95</v>
+      <c r="B21" s="29" t="s">
+        <v>94</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="5"/>
@@ -1892,19 +1892,19 @@
       <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" ht="12.75">
-      <c r="A22" s="38" t="s">
-        <v>90</v>
+      <c r="A22" s="24" t="s">
+        <v>89</v>
       </c>
-      <c r="B22" s="44" t="s">
-        <v>96</v>
+      <c r="B22" s="29" t="s">
+        <v>95</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="5"/>
@@ -1928,19 +1928,19 @@
       <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="12.75">
-      <c r="A23" s="38" t="s">
-        <v>91</v>
+      <c r="A23" s="24" t="s">
+        <v>90</v>
       </c>
-      <c r="B23" s="44" t="s">
-        <v>97</v>
+      <c r="B23" s="29" t="s">
+        <v>96</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="5"/>
@@ -1964,19 +1964,19 @@
       <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" ht="12.75">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="5"/>
@@ -2000,19 +2000,19 @@
       <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" ht="12.75">
-      <c r="A25" s="38" t="s">
-        <v>100</v>
+      <c r="A25" s="24" t="s">
+        <v>99</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>103</v>
+      <c r="B25" s="29" t="s">
+        <v>102</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F25" s="5"/>
@@ -2036,19 +2036,19 @@
       <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" ht="12.75">
-      <c r="A26" s="38" t="s">
-        <v>101</v>
+      <c r="A26" s="24" t="s">
+        <v>100</v>
       </c>
-      <c r="B26" s="44" t="s">
-        <v>104</v>
+      <c r="B26" s="29" t="s">
+        <v>103</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="E26" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F26" s="5"/>
@@ -2072,19 +2072,19 @@
       <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" ht="12.75">
-      <c r="A27" s="38" t="s">
-        <v>102</v>
+      <c r="A27" s="24" t="s">
+        <v>101</v>
       </c>
-      <c r="B27" s="44" t="s">
-        <v>105</v>
+      <c r="B27" s="29" t="s">
+        <v>104</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="40" t="s">
+      <c r="D27" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="40" t="s">
+      <c r="E27" s="26" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="5"/>
@@ -2108,13 +2108,13 @@
       <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>108</v>
+      <c r="A28" s="41" t="s">
+        <v>107</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="5"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2136,11 +2136,11 @@
       <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" ht="12.75">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="43" t="s">
-        <v>112</v>
+      <c r="B29" s="28" t="s">
+        <v>111</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>8</v>
@@ -2172,11 +2172,11 @@
       <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" ht="12.75">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B30" s="43" t="s">
-        <v>113</v>
+      <c r="B30" s="28" t="s">
+        <v>112</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>8</v>
@@ -2208,11 +2208,11 @@
       <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:24" ht="12.75">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>114</v>
+      <c r="B31" s="28" t="s">
+        <v>113</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>8</v>
@@ -2244,11 +2244,11 @@
       <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" ht="12.75">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>115</v>
+      <c r="B32" s="28" t="s">
+        <v>114</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>8</v>
@@ -2280,11 +2280,11 @@
       <c r="X32" s="2"/>
     </row>
     <row r="33" spans="1:24" ht="12.75">
-      <c r="A33" s="38" t="s">
-        <v>109</v>
+      <c r="A33" s="24" t="s">
+        <v>108</v>
       </c>
-      <c r="B33" s="43" t="s">
-        <v>116</v>
+      <c r="B33" s="28" t="s">
+        <v>115</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>8</v>
@@ -2316,11 +2316,11 @@
       <c r="X33" s="2"/>
     </row>
     <row r="34" spans="1:24" ht="12.75">
-      <c r="A34" s="38" t="s">
-        <v>110</v>
+      <c r="A34" s="24" t="s">
+        <v>109</v>
       </c>
-      <c r="B34" s="43" t="s">
-        <v>117</v>
+      <c r="B34" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>8</v>
@@ -2352,11 +2352,11 @@
       <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24" ht="12.75">
-      <c r="A35" s="38" t="s">
-        <v>111</v>
+      <c r="A35" s="24" t="s">
+        <v>110</v>
       </c>
-      <c r="B35" s="43" t="s">
-        <v>118</v>
+      <c r="B35" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>8</v>
@@ -2388,13 +2388,13 @@
       <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="5"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -2416,10 +2416,10 @@
       <c r="X36" s="2"/>
     </row>
     <row r="37" spans="1:24" ht="12.75">
-      <c r="A37" s="38" t="s">
+      <c r="A37" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="35" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -2452,7 +2452,7 @@
       <c r="X37" s="2"/>
     </row>
     <row r="38" spans="1:24" ht="12.75">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -2488,7 +2488,7 @@
       <c r="X38" s="2"/>
     </row>
     <row r="39" spans="1:24" ht="12.75">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -2524,7 +2524,7 @@
       <c r="X39" s="2"/>
     </row>
     <row r="40" spans="1:24" ht="12.75">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -2560,7 +2560,7 @@
       <c r="X40" s="2"/>
     </row>
     <row r="41" spans="1:24" ht="12.75">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2596,7 +2596,7 @@
       <c r="X41" s="2"/>
     </row>
     <row r="42" spans="1:24" ht="12.75">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -2632,10 +2632,10 @@
       <c r="X42" s="2"/>
     </row>
     <row r="43" spans="1:24" ht="12.75">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -2668,7 +2668,7 @@
       <c r="X43" s="2"/>
     </row>
     <row r="44" spans="1:24" ht="12.75">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="8" t="s">
@@ -2704,13 +2704,13 @@
       <c r="X44" s="2"/>
     </row>
     <row r="45" spans="1:24" ht="18" customHeight="1">
-      <c r="A45" s="33" t="s">
+      <c r="A45" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="5"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2732,17 +2732,17 @@
       <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" ht="18" customHeight="1">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>73</v>
+      <c r="B46" s="21" t="s">
+        <v>72</v>
       </c>
-      <c r="C46" s="54" t="s">
+      <c r="C46" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="56"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
       <c r="F46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2764,13 +2764,13 @@
       <c r="X46" s="2"/>
     </row>
     <row r="47" spans="1:24" ht="18" customHeight="1">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
       <c r="F47" s="5"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2792,10 +2792,10 @@
       <c r="X47" s="2"/>
     </row>
     <row r="48" spans="1:24" ht="12.75">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C48" s="9" t="s">
@@ -27427,18 +27427,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A3:E3"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27490,10 +27490,10 @@
       <c r="G1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
       <c r="L1" s="13"/>
